--- a/pesantren/modul-komputer-mabaiz/2. mengetik 10 jari.xlsx
+++ b/pesantren/modul-komputer-mabaiz/2. mengetik 10 jari.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\pesantren\modul-komputer-mabaiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\pesantren\modul-komputer-mabaiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF92E2BA-F999-4403-900C-24D2D7A55896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3662A08-AA91-4C3C-B53E-FD1ADCEA4FFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9BA5602F-5C25-419E-8CF4-DFBBBCF94239}"/>
   </bookViews>
@@ -197,12 +197,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,6 +207,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,27 +544,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -577,185 +577,185 @@
     </row>
     <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -763,7 +763,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>